--- a/data/Spreadsheet_Data/Book.xlsx
+++ b/data/Spreadsheet_Data/Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44ED29A3-3396-BE49-BBFA-DB7E5E1E93CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C780E8B3-0FB6-9C46-A33C-3397699ADC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32180" yWindow="500" windowWidth="44600" windowHeight="14000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="500" windowWidth="49760" windowHeight="14000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -77,6 +77,21 @@
   </si>
   <si>
     <t>CC 0.0</t>
+  </si>
+  <si>
+    <t>Directory</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>data/Multimedia_Data/Book/</t>
+  </si>
+  <si>
+    <t>Alice_in_Wonderland.pdf</t>
+  </si>
+  <si>
+    <t>Through_the_Looking_Glass.pdf</t>
   </si>
 </sst>
 </file>
@@ -368,10 +383,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -381,9 +396,10 @@
     <col min="3" max="3" width="40.5" customWidth="1"/>
     <col min="4" max="4" width="42.6640625" style="4" customWidth="1"/>
     <col min="11" max="11" width="63.33203125" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,8 +433,14 @@
       <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -428,14 +450,23 @@
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="182" x14ac:dyDescent="0.15">
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="182" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -445,38 +476,47 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="L3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
     </row>
   </sheetData>

--- a/data/Spreadsheet_Data/Book.xlsx
+++ b/data/Spreadsheet_Data/Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C780E8B3-0FB6-9C46-A33C-3397699ADC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8904BAA8-E8F9-1449-8CE6-ECBE835CD83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="500" windowWidth="49760" windowHeight="14000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="68240" windowHeight="14000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,12 +37,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>FT_001</t>
-  </si>
-  <si>
-    <t>FT_002</t>
-  </si>
-  <si>
     <t>Author</t>
   </si>
   <si>
@@ -92,6 +86,12 @@
   </si>
   <si>
     <t>Through_the_Looking_Glass.pdf</t>
+  </si>
+  <si>
+    <t>BK_001</t>
+  </si>
+  <si>
+    <t>BK_002</t>
   </si>
 </sst>
 </file>
@@ -385,8 +385,8 @@
   </sheetPr>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -404,7 +404,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
@@ -413,83 +413,83 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="182" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="13" x14ac:dyDescent="0.15">
